--- a/data/trans_bre/P1001-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1001-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 6,2</t>
+          <t>-0,71; 5,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 7,24</t>
+          <t>-0,72; 6,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 5,53</t>
+          <t>-1,23; 5,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 4,75</t>
+          <t>-1,85; 4,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,99; 218,22</t>
+          <t>-14,91; 181,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 237,38</t>
+          <t>-17,04; 202,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,5; 158,86</t>
+          <t>-20,94; 161,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,88; 121,43</t>
+          <t>-24,24; 117,43</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 7,77</t>
+          <t>0,4; 8,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 6,83</t>
+          <t>-1,97; 6,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 5,27</t>
+          <t>-2,21; 5,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,83; 9,98</t>
+          <t>4,13; 10,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,3; 283,04</t>
+          <t>-2,21; 266,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 151,76</t>
+          <t>-25,36; 149,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,13; 157,76</t>
+          <t>-36,19; 158,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>87,22; 667,48</t>
+          <t>89,64; 601,27</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 10,88</t>
+          <t>0,02; 10,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,29; 15,19</t>
+          <t>4,07; 15,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 14,52</t>
+          <t>0,96; 13,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 12,0</t>
+          <t>0,83; 12,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 206,32</t>
+          <t>-4,27; 203,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>43,25; 217,57</t>
+          <t>36,96; 207,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,27; 254,16</t>
+          <t>10,06; 245,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 540,39</t>
+          <t>3,7; 491,59</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 4,56</t>
+          <t>-0,69; 4,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,49</t>
+          <t>0,45; 6,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 8,79</t>
+          <t>3,28; 8,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 3,15</t>
+          <t>-3,3; 3,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 69,5</t>
+          <t>-9,21; 69,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 85,14</t>
+          <t>4,33; 81,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,59; 185,61</t>
+          <t>46,97; 177,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,15; 52,47</t>
+          <t>-43,17; 52,45</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 6,93</t>
+          <t>0,09; 7,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,12; 18,15</t>
+          <t>10,39; 17,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,24; 11,62</t>
+          <t>4,9; 11,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 8,89</t>
+          <t>0,74; 8,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 155,17</t>
+          <t>-1,96; 169,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>139,88; 462,25</t>
+          <t>140,5; 442,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>40,62; 167,84</t>
+          <t>47,65; 173,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,62; 129,92</t>
+          <t>8,43; 128,84</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,97; 8,47</t>
+          <t>2,89; 8,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,62; 15,0</t>
+          <t>8,29; 14,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,22; 12,25</t>
+          <t>5,95; 12,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,52; 14,35</t>
+          <t>6,31; 14,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>46,47; 416,68</t>
+          <t>44,86; 458,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>129,85; 832,67</t>
+          <t>111,91; 826,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>99,43; 595,87</t>
+          <t>97,31; 645,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>42,48; 838,83</t>
+          <t>60,64; 825,03</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,56</t>
+          <t>2,08; 4,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,07; 9,12</t>
+          <t>6,09; 9,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,93; 7,69</t>
+          <t>4,79; 7,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,98; 6,75</t>
+          <t>2,98; 6,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,36; 82,53</t>
+          <t>31,02; 86,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>77,1; 140,51</t>
+          <t>78,93; 143,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>74,96; 144,34</t>
+          <t>70,86; 140,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>51,7; 144,71</t>
+          <t>50,37; 144,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1001-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1001-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
